--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1428109.768863991</v>
+        <v>1373157.879579896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.387201317</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7945299.345257156</v>
+        <v>7945299.345257155</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>16.97326378477402</v>
       </c>
       <c r="S11" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>27.05677499767245</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>105.5248671940026</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>3.329915919761908</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.0001043529486</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>155.8614510880961</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>203.0678958373611</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>344.9164202291853</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>151.2628946660421</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>177.3594737591718</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.376832222376811</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>123.1434003800101</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>65.29320546849468</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>27.056774997672</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>72.93403079297012</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>193.4610198612646</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.391899072552777</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>7.226885210985958</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>291.5590642877623</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>166.7511913097018</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,16 +2168,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>143.5732592251939</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>138.699343956532</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.376832222376586</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553588</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>52.42857711587121</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>201.8560580491725</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>302.4935356298382</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>154.835042144339</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.0391991823522</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.93456886964948</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.9206716353532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>150.6440938082064</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>173.048821704834</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
@@ -2642,19 +2642,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>129.8794854283655</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>85.16718836397195</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>7.226885210985831</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>76.53519509961436</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>90.24152158232694</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>132.5726138877298</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>106.2161063757462</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>50.23110677595521</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>7.226885210985838</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>8.916258666857008</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>248.4314806577179</v>
+        <v>114.328249794565</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>120.2711336173149</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>103.7004270423341</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>7.226885210985824</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>80.39631948615272</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>203.5397208399249</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8084196484504</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -3362,10 +3362,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>54.15220238730314</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>56.48943795318107</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.1044229849743</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>141.8563839682508</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>207.4421960413022</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>97.0231053526031</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>103.1100538602893</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.1044229849741</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.00010435294862</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>225.7475499466685</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>158.768477257084</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>16.05627234453625</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>177.283526739121</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>130.8845645747169</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3884,7 +3884,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>52.42857711587138</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>27.05677499767268</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>176.9693758165092</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>43.89233596156699</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>108.3371651111731</v>
       </c>
       <c r="T45" t="n">
         <v>211.8662302997449</v>
@@ -4121,7 +4121,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>158.6107100818746</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>123.1434003800102</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1386.218517454924</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.218517454924</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.218517454924</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
@@ -5047,13 +5047,13 @@
         <v>253.8975067193751</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5065,28 +5065,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1698.587931828547</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1501.909348533381</v>
       </c>
       <c r="T11" t="n">
-        <v>1386.218517454924</v>
+        <v>1501.909348533381</v>
       </c>
       <c r="U11" t="n">
-        <v>1386.218517454924</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="V11" t="n">
-        <v>1386.218517454924</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="W11" t="n">
-        <v>1386.218517454924</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="X11" t="n">
-        <v>1386.218517454924</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="Y11" t="n">
-        <v>1386.218517454924</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.6782042885481</v>
+        <v>986.2968855274476</v>
       </c>
       <c r="C12" t="n">
-        <v>37.6782042885481</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D12" t="n">
-        <v>37.6782042885481</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E12" t="n">
-        <v>37.6782042885481</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F12" t="n">
-        <v>37.6782042885481</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443596</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M12" t="n">
-        <v>873.3058632974212</v>
+        <v>692.111394462885</v>
       </c>
       <c r="N12" t="n">
-        <v>1276.539627797432</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O12" t="n">
-        <v>1486.492278349808</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P12" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
@@ -5150,22 +5150,22 @@
         <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025987</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062328</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365241</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="X12" t="n">
-        <v>263.3188973532204</v>
+        <v>986.2968855274476</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.6782042885481</v>
+        <v>986.2968855274476</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
@@ -5220,31 +5220,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651446</v>
+        <v>177.421866200127</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.31465285444516</v>
+        <v>1132.747656646304</v>
       </c>
       <c r="C14" t="n">
-        <v>34.31465285444516</v>
+        <v>1132.747656646304</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F14" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H14" t="n">
         <v>34.31465285444516</v>
@@ -5278,16 +5278,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157783</v>
@@ -5305,25 +5305,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1300.7066125121</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U14" t="n">
-        <v>1048.145630292934</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V14" t="n">
-        <v>724.0246367483363</v>
+        <v>1510.613556017853</v>
       </c>
       <c r="W14" t="n">
-        <v>382.7150773283698</v>
+        <v>1510.613556017853</v>
       </c>
       <c r="X14" t="n">
-        <v>34.31465285444516</v>
+        <v>1510.613556017853</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.31465285444516</v>
+        <v>1510.613556017853</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>752.2254610062328</v>
+        <v>637.6183425805406</v>
       </c>
       <c r="C15" t="n">
-        <v>752.2254610062328</v>
+        <v>637.6183425805406</v>
       </c>
       <c r="D15" t="n">
-        <v>599.4346583132609</v>
+        <v>476.8382263415723</v>
       </c>
       <c r="E15" t="n">
-        <v>425.8714544346753</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F15" t="n">
-        <v>265.4437381519194</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G15" t="n">
-        <v>115.9747045751594</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
@@ -5360,22 +5360,22 @@
         <v>54.40930111025869</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443596</v>
+        <v>337.3144331656369</v>
       </c>
       <c r="M15" t="n">
-        <v>873.3058632974212</v>
+        <v>712.2060427186984</v>
       </c>
       <c r="N15" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O15" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P15" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
@@ -5393,16 +5393,16 @@
         <v>995.3051791025987</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062328</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="W15" t="n">
-        <v>752.2254610062328</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="X15" t="n">
-        <v>752.2254610062328</v>
+        <v>816.1541955074756</v>
       </c>
       <c r="Y15" t="n">
-        <v>752.2254610062328</v>
+        <v>816.1541955074756</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
@@ -5457,31 +5457,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>260.9755581809701</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="S16" t="n">
-        <v>260.9755581809701</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="T16" t="n">
-        <v>260.9755581809701</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="U16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1386.218517454924</v>
+        <v>882.7705792889344</v>
       </c>
       <c r="C17" t="n">
-        <v>1386.218517454924</v>
+        <v>882.7705792889344</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.218517454924</v>
+        <v>882.7705792889344</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>507.5393549842514</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>100.2673856509044</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193748</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389717</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
@@ -5542,25 +5542,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T17" t="n">
-        <v>1386.218517454924</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U17" t="n">
-        <v>1386.218517454924</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V17" t="n">
-        <v>1386.218517454924</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W17" t="n">
-        <v>1386.218517454924</v>
+        <v>1268.917617085348</v>
       </c>
       <c r="X17" t="n">
-        <v>1386.218517454924</v>
+        <v>1268.917617085348</v>
       </c>
       <c r="Y17" t="n">
-        <v>1386.218517454924</v>
+        <v>882.7705792889344</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>752.2254610062323</v>
+        <v>384.1546434042374</v>
       </c>
       <c r="C18" t="n">
-        <v>752.2254610062323</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="D18" t="n">
-        <v>591.445344767264</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E18" t="n">
-        <v>417.8821408886785</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F18" t="n">
-        <v>257.4544246059226</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>107.9853910291625</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
         <v>34.31465285444516</v>
@@ -5600,10 +5600,10 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L18" t="n">
-        <v>478.319605488546</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029028</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N18" t="n">
         <v>1173.359244302914</v>
@@ -5618,28 +5618,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775051</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025982</v>
+        <v>1520.317471145223</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062323</v>
+        <v>1277.237753048857</v>
       </c>
       <c r="W18" t="n">
-        <v>752.2254610062323</v>
+        <v>1007.839183779148</v>
       </c>
       <c r="X18" t="n">
-        <v>752.2254610062323</v>
+        <v>788.3311893958448</v>
       </c>
       <c r="Y18" t="n">
-        <v>752.2254610062323</v>
+        <v>562.6904963311724</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.7408135337914</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C19" t="n">
         <v>34.31465285444516</v>
@@ -5676,49 +5676,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T19" t="n">
-        <v>37.7408135337914</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U19" t="n">
-        <v>37.7408135337914</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V19" t="n">
-        <v>37.7408135337914</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W19" t="n">
-        <v>37.7408135337914</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X19" t="n">
-        <v>37.7408135337914</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.7408135337914</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>556.4931262795772</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C20" t="n">
-        <v>202.7501996319218</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D20" t="n">
-        <v>202.7501996319218</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887603053</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193757</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292791</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O20" t="n">
         <v>1460.63278584115</v>
@@ -5773,31 +5773,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="T20" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="U20" t="n">
-        <v>942.6401640759913</v>
+        <v>1357.66619428615</v>
       </c>
       <c r="V20" t="n">
-        <v>942.6401640759913</v>
+        <v>1033.545200741552</v>
       </c>
       <c r="W20" t="n">
-        <v>942.6401640759913</v>
+        <v>692.235641321585</v>
       </c>
       <c r="X20" t="n">
-        <v>942.6401640759913</v>
+        <v>328.8187581956192</v>
       </c>
       <c r="Y20" t="n">
-        <v>556.4931262795772</v>
+        <v>328.8187581956192</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4583331303328</v>
+        <v>544.9347596432057</v>
       </c>
       <c r="C21" t="n">
-        <v>798.0460588632965</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="D21" t="n">
-        <v>637.2659426243282</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E21" t="n">
-        <v>463.7027387457426</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F21" t="n">
-        <v>303.2750224629867</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G21" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025866</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3287381944638</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>395.233870249842</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M21" t="n">
-        <v>770.1254798029034</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N21" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O21" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S21" t="n">
         <v>1536.658373288803</v>
       </c>
       <c r="T21" t="n">
-        <v>1391.63487912194</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U21" t="n">
-        <v>1391.63487912194</v>
+        <v>1083.078954384285</v>
       </c>
       <c r="V21" t="n">
-        <v>1391.63487912194</v>
+        <v>1083.078954384285</v>
       </c>
       <c r="W21" t="n">
-        <v>1391.63487912194</v>
+        <v>942.9786069534443</v>
       </c>
       <c r="X21" t="n">
-        <v>1391.63487912194</v>
+        <v>723.4706125701407</v>
       </c>
       <c r="Y21" t="n">
-        <v>1165.994186057268</v>
+        <v>723.4706125701407</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H22" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I22" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K22" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809699</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>260.9755581809699</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>260.9755581809699</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T22" t="n">
-        <v>260.9755581809699</v>
+        <v>281.8995166771219</v>
       </c>
       <c r="U22" t="n">
-        <v>260.9755581809699</v>
+        <v>281.8995166771219</v>
       </c>
       <c r="V22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="W22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="X22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9755581809699</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.31465285444516</v>
+        <v>579.3936606235359</v>
       </c>
       <c r="C23" t="n">
-        <v>34.31465285444516</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D23" t="n">
         <v>34.31465285444516</v>
@@ -5989,16 +5989,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602985</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K23" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
         <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157782</v>
@@ -6007,34 +6007,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1413.548593210149</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U23" t="n">
-        <v>1413.548593210149</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="V23" t="n">
-        <v>1089.427599665551</v>
+        <v>920.7032200435025</v>
       </c>
       <c r="W23" t="n">
-        <v>783.8785737768251</v>
+        <v>579.3936606235359</v>
       </c>
       <c r="X23" t="n">
-        <v>420.4616906508592</v>
+        <v>579.3936606235359</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.31465285444516</v>
+        <v>579.3936606235359</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>822.6495330776379</v>
+        <v>544.9347596432057</v>
       </c>
       <c r="C24" t="n">
-        <v>633.2372588106016</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="D24" t="n">
-        <v>476.8382263415723</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E24" t="n">
-        <v>303.2750224629867</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F24" t="n">
-        <v>303.2750224629867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
         <v>34.31465285444516</v>
@@ -6068,16 +6068,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443597</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M24" t="n">
-        <v>873.3058632974213</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N24" t="n">
         <v>1173.359244302914</v>
@@ -6098,22 +6098,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T24" t="n">
-        <v>1715.732642722258</v>
+        <v>1502.561734457256</v>
       </c>
       <c r="U24" t="n">
-        <v>1715.732642722258</v>
+        <v>1502.561734457256</v>
       </c>
       <c r="V24" t="n">
-        <v>1715.732642722258</v>
+        <v>1259.48201636089</v>
       </c>
       <c r="W24" t="n">
-        <v>1446.334073452549</v>
+        <v>990.0834470911816</v>
       </c>
       <c r="X24" t="n">
-        <v>1226.826079069245</v>
+        <v>770.575452707878</v>
       </c>
       <c r="Y24" t="n">
-        <v>1001.185386004573</v>
+        <v>544.9347596432057</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="C25" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="D25" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E25" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="Y25" t="n">
-        <v>1594.600651171396</v>
+        <v>317.752050259164</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>616.3834117886346</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="C26" t="n">
-        <v>616.3834117886346</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D26" t="n">
-        <v>616.3834117886346</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E26" t="n">
-        <v>616.3834117886346</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F26" t="n">
-        <v>209.1114424552876</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G26" t="n">
         <v>34.31465285444516</v>
@@ -6226,13 +6226,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602973</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
         <v>856.6460009292779</v>
@@ -6250,28 +6250,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1610.227176505315</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U26" t="n">
-        <v>1357.666194286149</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="V26" t="n">
-        <v>1357.666194286149</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="W26" t="n">
-        <v>1357.666194286149</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="X26" t="n">
-        <v>994.2493111601834</v>
+        <v>881.4073304621347</v>
       </c>
       <c r="Y26" t="n">
-        <v>994.2493111601834</v>
+        <v>881.4073304621347</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1050.840750696878</v>
+        <v>533.9760769372098</v>
       </c>
       <c r="C27" t="n">
-        <v>861.428476429842</v>
+        <v>344.5638026701735</v>
       </c>
       <c r="D27" t="n">
-        <v>700.6483601908737</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="E27" t="n">
-        <v>527.0851563122882</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="F27" t="n">
-        <v>366.6574400295323</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L27" t="n">
-        <v>498.4142537443596</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M27" t="n">
-        <v>873.3058632974212</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N27" t="n">
         <v>1173.359244302914</v>
@@ -6329,28 +6329,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T27" t="n">
-        <v>1448.884598007117</v>
+        <v>1450.630910294892</v>
       </c>
       <c r="U27" t="n">
-        <v>1448.884598007117</v>
+        <v>1450.630910294892</v>
       </c>
       <c r="V27" t="n">
-        <v>1448.884598007117</v>
+        <v>1207.551192198526</v>
       </c>
       <c r="W27" t="n">
-        <v>1448.884598007117</v>
+        <v>938.1526229288172</v>
       </c>
       <c r="X27" t="n">
-        <v>1229.376603623813</v>
+        <v>938.1526229288172</v>
       </c>
       <c r="Y27" t="n">
-        <v>1229.376603623813</v>
+        <v>712.5119298641448</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>111.6229307328435</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>111.6229307328435</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V28" t="n">
-        <v>111.6229307328435</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W28" t="n">
         <v>34.31465285444516</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1300.706612512101</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="C29" t="n">
-        <v>1300.706612512101</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D29" t="n">
-        <v>1300.706612512101</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E29" t="n">
-        <v>925.475388207418</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F29" t="n">
-        <v>925.475388207418</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G29" t="n">
-        <v>503.8606818774093</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>168.2263840541722</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
@@ -6484,31 +6484,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S29" t="n">
-        <v>1519.054059427093</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T29" t="n">
-        <v>1300.706612512101</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U29" t="n">
-        <v>1300.706612512101</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V29" t="n">
-        <v>1300.706612512101</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W29" t="n">
-        <v>1300.706612512101</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X29" t="n">
-        <v>1300.706612512101</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y29" t="n">
-        <v>1300.706612512101</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.5070433604497</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="C30" t="n">
-        <v>195.0947690934134</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="D30" t="n">
-        <v>34.31465285444518</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444518</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444518</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L30" t="n">
-        <v>498.4142537443596</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M30" t="n">
-        <v>873.3058632974212</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N30" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O30" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T30" t="n">
-        <v>1627.958867440573</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U30" t="n">
-        <v>1520.669871101436</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V30" t="n">
-        <v>1277.59015300507</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="W30" t="n">
-        <v>1008.191583735361</v>
+        <v>944.5666874097146</v>
       </c>
       <c r="X30" t="n">
-        <v>788.6835893520572</v>
+        <v>944.5666874097146</v>
       </c>
       <c r="Y30" t="n">
-        <v>563.0428962873848</v>
+        <v>718.9259943450423</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
@@ -6654,19 +6654,19 @@
         <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>43.32097474015933</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V31" t="n">
-        <v>43.32097474015933</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W31" t="n">
-        <v>43.32097474015933</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444518</v>
+        <v>41.61453690594601</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1067.758736045726</v>
+        <v>860.663255582936</v>
       </c>
       <c r="C32" t="n">
-        <v>1067.758736045726</v>
+        <v>860.663255582936</v>
       </c>
       <c r="D32" t="n">
-        <v>1067.758736045726</v>
+        <v>860.663255582936</v>
       </c>
       <c r="E32" t="n">
-        <v>692.5275117410425</v>
+        <v>485.432031278253</v>
       </c>
       <c r="F32" t="n">
-        <v>285.2555424076955</v>
+        <v>485.432031278253</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J32" t="n">
-        <v>79.2644088760299</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292789</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S32" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="T32" t="n">
-        <v>1391.879729590324</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="U32" t="n">
-        <v>1391.879729590324</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="V32" t="n">
-        <v>1067.758736045726</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="W32" t="n">
-        <v>1067.758736045726</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="X32" t="n">
-        <v>1067.758736045726</v>
+        <v>1246.81029337935</v>
       </c>
       <c r="Y32" t="n">
-        <v>1067.758736045726</v>
+        <v>860.663255582936</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>316.2283626900444</v>
+        <v>624.4828549847109</v>
       </c>
       <c r="C33" t="n">
-        <v>316.2283626900444</v>
+        <v>624.4828549847109</v>
       </c>
       <c r="D33" t="n">
-        <v>316.2283626900444</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="E33" t="n">
-        <v>316.2283626900444</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F33" t="n">
-        <v>155.8006464072885</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3287381944633</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>395.2338702498415</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M33" t="n">
-        <v>770.1254798029031</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N33" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O33" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R33" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T33" t="n">
-        <v>1448.884598007117</v>
+        <v>1413.952574208508</v>
       </c>
       <c r="U33" t="n">
-        <v>1209.311472334664</v>
+        <v>1174.379448536055</v>
       </c>
       <c r="V33" t="n">
-        <v>1209.311472334664</v>
+        <v>1069.631542432687</v>
       </c>
       <c r="W33" t="n">
-        <v>939.9129030649555</v>
+        <v>1069.631542432687</v>
       </c>
       <c r="X33" t="n">
-        <v>720.4049086816518</v>
+        <v>850.1235480493833</v>
       </c>
       <c r="Y33" t="n">
-        <v>494.7642156169795</v>
+        <v>624.4828549847109</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.5230563758116</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="C34" t="n">
-        <v>115.5230563758116</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="D34" t="n">
-        <v>115.5230563758116</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E34" t="n">
-        <v>115.5230563758116</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F34" t="n">
-        <v>115.5230563758116</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
@@ -6897,13 +6897,13 @@
         <v>334.8576753800221</v>
       </c>
       <c r="W34" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="X34" t="n">
-        <v>334.8576753800221</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5230563758116</v>
+        <v>41.61453690594601</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>593.6532571181864</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="C35" t="n">
-        <v>239.910330470531</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="D35" t="n">
-        <v>34.31465285444516</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="E35" t="n">
-        <v>34.31465285444516</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444516</v>
+        <v>753.7156416576361</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>332.1009353276274</v>
       </c>
       <c r="H35" t="n">
         <v>34.31465285444516</v>
@@ -6943,16 +6943,16 @@
         <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
@@ -6964,25 +6964,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T35" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U35" t="n">
-        <v>1357.666194286149</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V35" t="n">
-        <v>1357.666194286149</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W35" t="n">
-        <v>1357.666194286149</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="X35" t="n">
-        <v>1357.666194286149</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="Y35" t="n">
-        <v>971.5191564897352</v>
+        <v>1160.987610990983</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1042.157527460942</v>
+        <v>949.6270488192655</v>
       </c>
       <c r="C36" t="n">
-        <v>852.7452531939057</v>
+        <v>760.2147745522292</v>
       </c>
       <c r="D36" t="n">
-        <v>691.9651369549374</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="E36" t="n">
-        <v>518.4019330763518</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F36" t="n">
-        <v>357.9742167935959</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G36" t="n">
-        <v>208.5051832168358</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H36" t="n">
-        <v>89.0138471850544</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
@@ -7019,49 +7019,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>34.31465285444516</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>317.2197849098234</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M36" t="n">
-        <v>692.111394462885</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N36" t="n">
-        <v>1095.345158962896</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
-        <v>1408.47819300979</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P36" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1658.672604385712</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.732642722258</v>
+        <v>1658.672604385712</v>
       </c>
       <c r="T36" t="n">
-        <v>1715.732642722258</v>
+        <v>1444.666311153646</v>
       </c>
       <c r="U36" t="n">
-        <v>1715.732642722258</v>
+        <v>1444.666311153646</v>
       </c>
       <c r="V36" t="n">
-        <v>1715.732642722258</v>
+        <v>1444.666311153646</v>
       </c>
       <c r="W36" t="n">
-        <v>1446.33407345255</v>
+        <v>1175.267741883938</v>
       </c>
       <c r="X36" t="n">
-        <v>1446.33407345255</v>
+        <v>1175.267741883938</v>
       </c>
       <c r="Y36" t="n">
-        <v>1220.693380387877</v>
+        <v>949.6270488192655</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.091811424305</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1506.195070963368</v>
+        <v>974.4498602247437</v>
       </c>
       <c r="C38" t="n">
-        <v>1152.452144315712</v>
+        <v>974.4498602247437</v>
       </c>
       <c r="D38" t="n">
-        <v>1152.452144315712</v>
+        <v>974.4498602247437</v>
       </c>
       <c r="E38" t="n">
-        <v>777.2209200110292</v>
+        <v>599.2186359200607</v>
       </c>
       <c r="F38" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193746</v>
       </c>
       <c r="L38" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
@@ -7195,31 +7195,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1506.195070963368</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V38" t="n">
-        <v>1506.195070963368</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W38" t="n">
-        <v>1506.195070963368</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X38" t="n">
-        <v>1506.195070963368</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="Y38" t="n">
-        <v>1506.195070963368</v>
+        <v>1352.315759596293</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>718.4979635217912</v>
+        <v>321.7300638412826</v>
       </c>
       <c r="C39" t="n">
-        <v>529.0856892547549</v>
+        <v>132.3177895742463</v>
       </c>
       <c r="D39" t="n">
-        <v>368.3055730157866</v>
+        <v>132.3177895742463</v>
       </c>
       <c r="E39" t="n">
-        <v>194.7423691372011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F39" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>54.4093011102587</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L39" t="n">
-        <v>304.6946924676444</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M39" t="n">
-        <v>679.5863020207059</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P39" t="n">
         <v>1625.193464940061</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722259</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T39" t="n">
-        <v>1611.581073166411</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U39" t="n">
-        <v>1611.581073166411</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V39" t="n">
-        <v>1611.581073166411</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="W39" t="n">
-        <v>1342.182503896702</v>
+        <v>725.90660983289</v>
       </c>
       <c r="X39" t="n">
-        <v>1122.674509513399</v>
+        <v>725.90660983289</v>
       </c>
       <c r="Y39" t="n">
-        <v>897.0338164487264</v>
+        <v>500.2659167682177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196682</v>
+        <v>181.2168440820684</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1641.850525523207</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1465.694776108751</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>951.7197055542957</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="C41" t="n">
-        <v>597.9767789066403</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="D41" t="n">
-        <v>369.9489506776823</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="E41" t="n">
-        <v>369.9489506776823</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="F41" t="n">
-        <v>369.9489506776823</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9489506776823</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444517</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.2644088760301</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722259</v>
+        <v>1139.318747371157</v>
       </c>
       <c r="V41" t="n">
-        <v>1715.732642722259</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.732642722259</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.732642722259</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="Y41" t="n">
-        <v>1329.585604925845</v>
+        <v>978.9465481215775</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>251.6844975206138</v>
+        <v>487.7969090475681</v>
       </c>
       <c r="C42" t="n">
-        <v>251.6844975206138</v>
+        <v>487.7969090475681</v>
       </c>
       <c r="D42" t="n">
-        <v>251.6844975206138</v>
+        <v>487.7969090475681</v>
       </c>
       <c r="E42" t="n">
-        <v>251.6844975206138</v>
+        <v>314.2337051689825</v>
       </c>
       <c r="F42" t="n">
-        <v>251.6844975206138</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025871</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3287381944633</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498415</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029031</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N42" t="n">
         <v>1173.359244302914</v>
@@ -7508,34 +7508,34 @@
         <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T42" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="U42" t="n">
-        <v>1209.311472334664</v>
+        <v>1404.45174240525</v>
       </c>
       <c r="V42" t="n">
-        <v>966.2317542382984</v>
+        <v>1161.372024308884</v>
       </c>
       <c r="W42" t="n">
-        <v>696.8331849685898</v>
+        <v>891.9734550391756</v>
       </c>
       <c r="X42" t="n">
-        <v>477.3251905852861</v>
+        <v>891.9734550391756</v>
       </c>
       <c r="Y42" t="n">
-        <v>251.6844975206138</v>
+        <v>666.3327619745032</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722259</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V43" t="n">
-        <v>1468.147778899582</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1413.548593210149</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="C44" t="n">
-        <v>1413.548593210149</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D44" t="n">
-        <v>1413.548593210149</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E44" t="n">
-        <v>1386.218517454924</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F44" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602965</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292786</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1413.548593210149</v>
+        <v>1536.975697453057</v>
       </c>
       <c r="V44" t="n">
-        <v>1413.548593210149</v>
+        <v>1536.975697453057</v>
       </c>
       <c r="W44" t="n">
-        <v>1413.548593210149</v>
+        <v>1536.975697453057</v>
       </c>
       <c r="X44" t="n">
-        <v>1413.548593210149</v>
+        <v>1173.558814327091</v>
       </c>
       <c r="Y44" t="n">
-        <v>1413.548593210149</v>
+        <v>787.411776530677</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.65034574491688</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="C45" t="n">
-        <v>34.31465285444517</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="D45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
         <v>195.4144734331679</v>
@@ -7745,34 +7745,34 @@
         <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007117</v>
+        <v>1606.301162811982</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775052</v>
+        <v>1392.294869579917</v>
       </c>
       <c r="U45" t="n">
-        <v>995.3051791025989</v>
+        <v>1152.721743907464</v>
       </c>
       <c r="V45" t="n">
-        <v>752.225461006233</v>
+        <v>909.6420258110981</v>
       </c>
       <c r="W45" t="n">
-        <v>482.8268917365243</v>
+        <v>640.2434565413894</v>
       </c>
       <c r="X45" t="n">
-        <v>482.8268917365243</v>
+        <v>420.7354621580857</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.186198671852</v>
+        <v>195.0947690934134</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444517</v>
+        <v>194.5274913209852</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
         <v>42.23041924514574</v>
@@ -7830,28 +7830,28 @@
         <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444517</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8783,13 +8783,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>151.0001733008984</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>193.7122655512252</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9017,16 +9017,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>310.6138585746227</v>
+        <v>277.664625546347</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>102.1412644882571</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
@@ -9251,10 +9251,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>217.8518962203992</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,7 +9482,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>67.15086399372925</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9491,7 +9491,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526881</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131759</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>206.3912489841998</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>206.3912489842004</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
@@ -10199,7 +10199,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888867</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>102.1412644882575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
-        <v>67.15086399372865</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850226</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10667,7 +10667,7 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K36" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,10 +10682,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q36" t="n">
-        <v>123.4784739253762</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K39" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>207.3553107283663</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
@@ -10919,7 +10919,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>206.3638740786793</v>
+        <v>30.98517405756612</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.574606631504</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
-        <v>67.15086399372856</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315036</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>226.6888734850221</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>87.47714776999946</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>189.1071974481693</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23326,7 +23326,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>81.99328433036335</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>144.6444273212306</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258726</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
@@ -23472,7 +23472,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>132.759882545368</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
@@ -23509,10 +23509,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>185.5090622027478</v>
@@ -23545,22 +23545,22 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>117.8118877717909</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>14.86629406552078</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>7.909420410536427</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>39.95344068029877</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>155.7061618107479</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
@@ -23709,7 +23709,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>165.4779332534541</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23740,19 +23740,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>352.1053537982139</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>189.1071974481698</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
         <v>250.0353723969745</v>
@@ -23794,13 +23794,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>45.36239187849349</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>43.7163745544639</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>163.0652818994196</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23943,7 +23943,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
         <v>288.6213336334641</v>
@@ -23952,10 +23952,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972566</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>82.52817609007104</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>204.7277207519343</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24056,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>68.29297107455101</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>128.0052396204796</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24144,13 +24144,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H22" t="n">
-        <v>155.7061618107482</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24180,13 +24180,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0023972007068</v>
+        <v>168.5738200848356</v>
       </c>
       <c r="U22" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
@@ -24208,10 +24208,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>148.3494393320063</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>35.40292819592867</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4.337272932239557</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
         <v>80.84345120350704</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0.8270311173926643</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
         <v>166.4571809719723</v>
@@ -24372,10 +24372,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24417,7 +24417,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0023972007068</v>
+        <v>204.0678283310573</v>
       </c>
       <c r="U25" t="n">
         <v>288.6213336334641</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.22060117881523</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>223.4431465696269</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>244.3497375618745</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>18.09485781262695</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>126.6990419357729</v>
       </c>
       <c r="U27" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24654,16 +24654,16 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224783</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>213.775511989721</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>259.9639757988519</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>52.93644831501798</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>130.9612880399822</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>216.4734768010564</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>131.6999970074608</v>
       </c>
       <c r="G31" t="n">
         <v>168.0550137836253</v>
@@ -24894,16 +24894,16 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>213.0031967413855</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>168.9670786089906</v>
+        <v>303.0703094721434</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>185.5090622027478</v>
@@ -24970,22 +24970,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>27.70320962367763</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.84345120350704</v>
@@ -25046,19 +25046,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>136.9484938730682</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>137.9557650397249</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25089,7 +25089,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>87.65869429747255</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H34" t="n">
         <v>160.0829940331247</v>
@@ -25137,13 +25137,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>134.2324388023023</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>37.46953519655426</v>
       </c>
       <c r="I35" t="n">
         <v>185.5090622027478</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.1639724458418</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>26.6912488162039</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>30.40659957568777</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
@@ -25329,10 +25329,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>7.978571048150472</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
         <v>74.58429473553585</v>
@@ -25368,7 +25368,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25377,7 +25377,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
-        <v>221.9194554082425</v>
+        <v>213.0031967413855</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>261.3428656717626</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
         <v>185.5090622027478</v>
@@ -25447,7 +25447,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>42.59317635567238</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25456,7 +25456,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25475,13 +25475,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>74.80446648719658</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>108.7561764394556</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0829940331247</v>
+        <v>7.978571048150627</v>
       </c>
       <c r="I40" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>74.58429473553585</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
-        <v>174.1840844483079</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
         <v>221.0023972007068</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>112.0246096955588</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>162.111306352068</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -25715,19 +25715,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>131.9180708964562</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>106.2928298410116</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224782</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>237.8821299734639</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,19 +25873,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>344.4221370639635</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>73.06599658046537</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25930,10 +25930,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>143.6258155627989</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>68.94636162794794</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0550137836253</v>
+        <v>9.44430370175067</v>
       </c>
       <c r="H46" t="n">
         <v>160.0829940331247</v>
@@ -26070,13 +26070,13 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>97.8589968206966</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213336334641</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>580383.4211870678</v>
+        <v>580383.4211870679</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>580383.4211870678</v>
+        <v>580383.4211870679</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>580383.4211870676</v>
+        <v>580383.4211870679</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580383.4211870679</v>
+        <v>580383.421187068</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>580383.4211870678</v>
+        <v>580383.4211870676</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>580383.4211870679</v>
+        <v>580383.4211870678</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>580383.421187068</v>
+        <v>580383.4211870678</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>580383.4211870679</v>
+        <v>580383.421187068</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580383.4211870679</v>
+        <v>580383.4211870678</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>580383.421187068</v>
+        <v>580383.4211870678</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>580383.4211870678</v>
+        <v>580383.4211870676</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852873</v>
+        <v>551207.4969852874</v>
       </c>
       <c r="C2" t="n">
         <v>551207.4969852872</v>
       </c>
       <c r="D2" t="n">
-        <v>551207.4969852872</v>
+        <v>551207.4969852874</v>
       </c>
       <c r="E2" t="n">
         <v>313077.6564078294</v>
       </c>
       <c r="F2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="G2" t="n">
         <v>313077.6564078294</v>
       </c>
       <c r="H2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="I2" t="n">
         <v>313077.6564078294</v>
@@ -26340,13 +26340,13 @@
         <v>313077.6564078294</v>
       </c>
       <c r="K2" t="n">
+        <v>313077.6564078295</v>
+      </c>
+      <c r="L2" t="n">
+        <v>313077.6564078296</v>
+      </c>
+      <c r="M2" t="n">
         <v>313077.6564078294</v>
-      </c>
-      <c r="L2" t="n">
-        <v>313077.6564078295</v>
-      </c>
-      <c r="M2" t="n">
-        <v>313077.6564078293</v>
       </c>
       <c r="N2" t="n">
         <v>313077.6564078294</v>
@@ -26355,7 +26355,7 @@
         <v>313077.6564078294</v>
       </c>
       <c r="P2" t="n">
-        <v>313077.6564078295</v>
+        <v>313077.6564078294</v>
       </c>
     </row>
     <row r="3">
@@ -26429,22 +26429,22 @@
         <v>17165.37605798122</v>
       </c>
       <c r="F4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="G4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="H4" t="n">
         <v>17165.37605798123</v>
       </c>
       <c r="I4" t="n">
+        <v>17165.37605798123</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17165.37605798123</v>
+      </c>
+      <c r="K4" t="n">
         <v>17165.37605798122</v>
-      </c>
-      <c r="J4" t="n">
-        <v>17165.37605798122</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17165.37605798123</v>
       </c>
       <c r="L4" t="n">
         <v>17165.37605798123</v>
@@ -26456,7 +26456,7 @@
         <v>17165.37605798123</v>
       </c>
       <c r="O4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="P4" t="n">
         <v>17165.37605798122</v>
@@ -26487,31 +26487,31 @@
         <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
+        <v>36091.33751189047</v>
+      </c>
+      <c r="I5" t="n">
         <v>36091.33751189046</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
         <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="L5" t="n">
         <v>36091.33751189047</v>
-      </c>
-      <c r="L5" t="n">
-        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
         <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119076.7801593121</v>
+        <v>119032.1163172603</v>
       </c>
       <c r="C6" t="n">
-        <v>119076.780159312</v>
+        <v>119032.11631726</v>
       </c>
       <c r="D6" t="n">
-        <v>119076.780159312</v>
+        <v>119032.1163172603</v>
       </c>
       <c r="E6" t="n">
-        <v>-237232.2089795347</v>
+        <v>-246802.066444685</v>
       </c>
       <c r="F6" t="n">
-        <v>259820.9428379578</v>
+        <v>250251.0853728077</v>
       </c>
       <c r="G6" t="n">
-        <v>259820.9428379578</v>
+        <v>250251.0853728075</v>
       </c>
       <c r="H6" t="n">
-        <v>259820.9428379578</v>
+        <v>250251.0853728077</v>
       </c>
       <c r="I6" t="n">
-        <v>259820.9428379578</v>
+        <v>250251.0853728075</v>
       </c>
       <c r="J6" t="n">
-        <v>259820.9428379577</v>
+        <v>250251.0853728075</v>
       </c>
       <c r="K6" t="n">
-        <v>259820.9428379578</v>
+        <v>250251.0853728076</v>
       </c>
       <c r="L6" t="n">
-        <v>259820.9428379578</v>
+        <v>250251.0853728077</v>
       </c>
       <c r="M6" t="n">
-        <v>152929.0834637183</v>
+        <v>143359.2259985681</v>
       </c>
       <c r="N6" t="n">
-        <v>259820.9428379577</v>
+        <v>250251.0853728075</v>
       </c>
       <c r="O6" t="n">
-        <v>259820.9428379577</v>
+        <v>250251.0853728075</v>
       </c>
       <c r="P6" t="n">
-        <v>259820.9428379579</v>
+        <v>250251.0853728075</v>
       </c>
     </row>
   </sheetData>
@@ -26752,13 +26752,13 @@
         <v>459.2752909409236</v>
       </c>
       <c r="G3" t="n">
+        <v>459.2752909409237</v>
+      </c>
+      <c r="H3" t="n">
         <v>459.2752909409236</v>
       </c>
-      <c r="H3" t="n">
-        <v>459.2752909409235</v>
-      </c>
       <c r="I3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
         <v>459.2752909409236</v>
@@ -26807,31 +26807,31 @@
         <v>428.9331606805645</v>
       </c>
       <c r="H4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="I4" t="n">
         <v>428.9331606805646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="L4" t="n">
         <v>428.9331606805647</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -32229,43 +32229,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O17" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O18" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H19" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32405,7 +32405,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,19 +32414,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32563,10 +32563,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,16 +32575,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,19 +32651,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,16 +32712,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
         <v>311.0863102573771</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
         <v>256.9298629953381</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32888,7 +32888,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
         <v>37.2389440818657</v>
@@ -32900,7 +32900,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>285.7627596518972</v>
@@ -35503,13 +35503,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
-        <v>212.0733843963393</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
-        <v>231.5559236085354</v>
+        <v>218.9043150810814</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>20.29762450082174</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518972</v>
@@ -35737,16 +35737,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>407.3068328282941</v>
+        <v>374.3575998000184</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
-        <v>127.3333140181132</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>294.7534083983401</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082171</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K21" t="n">
-        <v>58.50448190323754</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M21" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063595</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P22" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811783</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518972</v>
@@ -36448,10 +36448,10 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>303.0842232378712</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
@@ -36685,7 +36685,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>303.0842232378718</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>162.7270914936593</v>
@@ -36919,7 +36919,7 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M30" t="n">
-        <v>378.678393487941</v>
+        <v>203.2996934668277</v>
       </c>
       <c r="N30" t="n">
         <v>407.3068328282941</v>
@@ -36928,10 +36928,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>127.3333140181136</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>58.50448190323699</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
@@ -37159,7 +37159,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
-        <v>407.3068328282941</v>
+        <v>323.381847738694</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
@@ -37402,10 +37402,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>231.5559236085354</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.80210640405862</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
-        <v>252.8135266236219</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
         <v>378.678393487941</v>
@@ -37639,7 +37639,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>231.5559236085354</v>
+        <v>56.17722358742224</v>
       </c>
       <c r="Q39" t="n">
         <v>91.45371493151265</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.4037939611969</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>58.50448190323691</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -37870,7 +37870,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>407.3068328282941</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867617</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119645</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38107,7 +38107,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>323.3818477386935</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867617</v>
